--- a/notebooks/model_results2.xlsx
+++ b/notebooks/model_results2.xlsx
@@ -528,11 +528,13 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="21.18" customWidth="1"/>
+    <col min="2" max="2" width="22.35" customWidth="1"/>
     <col min="3" max="3" width="72.53" customWidth="1"/>
     <col min="4" max="4" width="44.56" customWidth="1"/>
   </cols>
